--- a/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:34:12+00:00</t>
+    <t>2024-05-02T08:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T08:43:49+00:00</t>
+    <t>2024-05-02T08:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T08:44:38+00:00</t>
+    <t>2024-05-02T12:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:17:05+00:00</t>
+    <t>2024-05-02T12:31:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:31:07+00:00</t>
+    <t>2024-05-02T12:37:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:37:40+00:00</t>
+    <t>2024-05-02T12:40:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:40:02+00:00</t>
+    <t>2024-05-02T12:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:53:40+00:00</t>
+    <t>2024-05-02T13:26:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
